--- a/Application/ChefReports Route - 0 ( Standard ).xlsx
+++ b/Application/ChefReports Route - 0 ( Standard ).xlsx
@@ -9,15 +9,12 @@
     <sheet name="ChefReports Route - 0" r:id="rId3" sheetId="1"/>
     <sheet name="ChefReports Route - 1" r:id="rId4" sheetId="2"/>
     <sheet name="ChefReports Route - 2" r:id="rId5" sheetId="3"/>
-    <sheet name="ChefReports Route - 3" r:id="rId6" sheetId="4"/>
-    <sheet name="ChefReports Route - 4" r:id="rId7" sheetId="5"/>
-    <sheet name="ChefReports Route - 5" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="50">
   <si>
     <t>Doorstep Chef - Chef Report 26 Sep 2016</t>
   </si>
@@ -167,15 +164,6 @@
   </si>
   <si>
     <t>No Potatoes</t>
-  </si>
-  <si>
-    <t>Meal Type : Standard  Route: 3</t>
-  </si>
-  <si>
-    <t>Meal Type : Standard  Route: 4</t>
-  </si>
-  <si>
-    <t>Meal Type : Standard  Route: 5</t>
   </si>
 </sst>
 </file>
@@ -183,814 +171,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="379">
+  <fonts count="190">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1902,7 +1089,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="355">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
@@ -2125,273 +1312,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="145" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="191" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="193" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="196" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="198" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="202" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="204" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="206" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="208" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="257" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="258" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="259" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="260" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="261" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="262" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="263" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="264" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="265" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="266" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="267" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="269" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="271" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="273" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="275" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="316" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="317" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="318" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="319" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="320" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="321" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="324" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="325" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="326" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="328" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="330" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="332" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="334" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
@@ -2450,11 +1370,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.71875" customWidth="true"/>
+    <col min="1" max="1" width="15.625" customWidth="true"/>
     <col min="2" max="2" width="11.71875" customWidth="true"/>
-    <col min="3" max="3" width="23.4375" customWidth="true"/>
+    <col min="3" max="3" width="31.25" customWidth="true"/>
     <col min="4" max="4" width="31.25" customWidth="true"/>
-    <col min="5" max="5" width="11.71875" customWidth="true"/>
+    <col min="5" max="5" width="15.625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2692,11 +1612,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.71875" customWidth="true"/>
+    <col min="1" max="1" width="15.625" customWidth="true"/>
     <col min="2" max="2" width="11.71875" customWidth="true"/>
-    <col min="3" max="3" width="23.4375" customWidth="true"/>
+    <col min="3" max="3" width="31.25" customWidth="true"/>
     <col min="4" max="4" width="31.25" customWidth="true"/>
-    <col min="5" max="5" width="11.71875" customWidth="true"/>
+    <col min="5" max="5" width="15.625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2906,11 +1826,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.71875" customWidth="true"/>
+    <col min="1" max="1" width="15.625" customWidth="true"/>
     <col min="2" max="2" width="11.71875" customWidth="true"/>
-    <col min="3" max="3" width="23.4375" customWidth="true"/>
+    <col min="3" max="3" width="31.25" customWidth="true"/>
     <col min="4" max="4" width="31.25" customWidth="true"/>
-    <col min="5" max="5" width="11.71875" customWidth="true"/>
+    <col min="5" max="5" width="15.625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3115,690 +2035,6 @@
         <v>1</v>
       </c>
       <c r="D14" t="s" s="177">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="11.71875" customWidth="true"/>
-    <col min="2" max="2" width="11.71875" customWidth="true"/>
-    <col min="3" max="3" width="23.4375" customWidth="true"/>
-    <col min="4" max="4" width="31.25" customWidth="true"/>
-    <col min="5" max="5" width="11.71875" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="178">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="179">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="180">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="181">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="182">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="183">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="184">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="185">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="186">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="187">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="189">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s" s="190">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s" s="191">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="192">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="193">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s" s="194">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="195">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s" s="196">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="197">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s" s="198">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s" s="199">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="201">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s" s="202">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s" s="203">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s" s="204">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="205">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s" s="206">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s" s="207">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s" s="208">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="209">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s" s="210">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s" s="211">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s" s="212">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="213">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s" s="214">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s" s="215">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="216">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="217">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s" s="218">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s" s="219">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="221">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s" s="222">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s" s="223">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s" s="224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="225">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s" s="226">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s" s="227">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s" s="228">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="229">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s" s="230">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s" s="231">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s" s="232">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="233">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s" s="234">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s" s="235">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s" s="236">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="237">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s" s="238">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s" s="239">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s" s="240">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="11.71875" customWidth="true"/>
-    <col min="2" max="2" width="11.71875" customWidth="true"/>
-    <col min="3" max="3" width="23.4375" customWidth="true"/>
-    <col min="4" max="4" width="31.25" customWidth="true"/>
-    <col min="5" max="5" width="11.71875" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="241">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="242">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="243">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="244">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="245">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="246">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="247">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="248">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="249">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="250">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="251">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="252">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s" s="253">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s" s="254">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="255">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="256">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s" s="257">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="258">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s" s="259">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="260">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s" s="261">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="262">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s" s="263">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="264">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s" s="265">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s" s="266">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s" s="267">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="268">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s" s="269">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s" s="270">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="271">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="272">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s" s="273">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s" s="274">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="275">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="276">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s" s="277">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s" s="278">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="279">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="280">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s" s="281">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s" s="282">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s" s="283">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="284">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s" s="285">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s" s="286">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s" s="287">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="288">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s" s="289">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s" s="290">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s" s="291">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="292">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s" s="293">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s" s="294">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s" s="295">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="11.71875" customWidth="true"/>
-    <col min="2" max="2" width="11.71875" customWidth="true"/>
-    <col min="3" max="3" width="23.4375" customWidth="true"/>
-    <col min="4" max="4" width="31.25" customWidth="true"/>
-    <col min="5" max="5" width="11.71875" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="296">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="297">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="298">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="299">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="300">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="301">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="302">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="303">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="304">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="305">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="306">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="307">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s" s="308">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s" s="309">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="310">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="311">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s" s="312">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="313">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s" s="314">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="315">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s" s="316">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="317">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s" s="318">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="319">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s" s="320">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s" s="321">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="322">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="323">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s" s="324">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s" s="325">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s" s="326">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="327">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s" s="328">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s" s="329">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="330">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="331">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s" s="332">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s" s="333">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s" s="334">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="335">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s" s="336">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s" s="337">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="338">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="339">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s" s="340">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s" s="341">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s" s="342">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="343">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s" s="344">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s" s="345">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s" s="346">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="347">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s" s="348">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s" s="349">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s" s="350">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="351">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s" s="352">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s" s="353">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s" s="354">
         <v>1</v>
       </c>
     </row>

--- a/Application/ChefReports Route - 0 ( Standard ).xlsx
+++ b/Application/ChefReports Route - 0 ( Standard ).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="34">
   <si>
     <t>FS:2</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>FS:1</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Fish once a week and no tough meat</t>
   </si>
   <si>
     <t>No Nuts</t>
@@ -213,33 +219,24 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -253,13 +250,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -273,24 +270,42 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -323,6 +338,17 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -347,7 +373,7 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -361,16 +387,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -387,7 +413,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -407,7 +433,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -421,7 +447,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -432,7 +458,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -443,7 +469,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -454,7 +480,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -465,7 +491,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -476,7 +502,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -500,16 +526,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -526,7 +552,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -543,10 +569,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -566,7 +592,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -586,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
